--- a/F_dataset/ChEMBL/BTK/BTK_preprocessing/BTK_g1.xlsx
+++ b/F_dataset/ChEMBL/BTK/BTK_preprocessing/BTK_g1.xlsx
@@ -662,7 +662,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F579310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB1380&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5792A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB1310&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F579230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB12A0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5791C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB1230&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F579150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB11C0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5790E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB1150&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F579070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB10E0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F579000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB1070&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB1000&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0F90&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0F20&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0EB0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0E40&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0DD0&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0D60&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0CF0&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0C80&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0C10&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0BA0&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0B30&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0AC0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5789E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0A50&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB09E0&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0970&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0900&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0890&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5787B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0820&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB07B0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5786D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0740&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB06D0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5785F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0660&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB05F0&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0580&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5784A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0510&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB04A0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB03C0&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5782E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0350&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB02E0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0270&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0200&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0190&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5780B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0120&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F578040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB00B0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F579380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0040&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A73F5783C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB13F0&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A74194FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CECAB0430&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A74194FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CEEE93F40&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A74194FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CEEE93E60&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A74194FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CEEE93DF0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A74194FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000024CEEE93D80&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
